--- a/food/foodconsumption.xlsx
+++ b/food/foodconsumption.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olw09\karthikcase\descrete-optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olw09\karthikcase\descrete-optimization\food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A07E97-0208-4305-BBB1-CDB4A69C6853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9282F249-2129-4B2E-B429-DA50126F82CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">Samosa </t>
   </si>
@@ -475,9 +475,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -507,7 +509,7 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
@@ -516,15 +518,16 @@
         <v>15</v>
       </c>
       <c r="D2" s="1">
+        <f t="shared" ref="D2" si="0">B2-8</f>
         <v>12</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
@@ -533,16 +536,15 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D21" si="0">B3-8</f>
         <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
@@ -551,16 +553,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D22" si="1">B4-8</f>
         <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -569,16 +571,16 @@
         <v>15</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
@@ -587,16 +589,16 @@
         <v>15</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>20</v>
@@ -605,16 +607,16 @@
         <v>15</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>20</v>
@@ -623,16 +625,16 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>20</v>
@@ -641,16 +643,16 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>20</v>
@@ -659,16 +661,16 @@
         <v>15</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E10" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
@@ -677,16 +679,16 @@
         <v>15</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>20</v>
@@ -695,16 +697,16 @@
         <v>15</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>20</v>
@@ -713,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>20</v>
@@ -731,16 +733,16 @@
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>20</v>
@@ -749,16 +751,16 @@
         <v>15</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>20</v>
@@ -767,16 +769,16 @@
         <v>15</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>20</v>
@@ -785,16 +787,16 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>20</v>
@@ -803,16 +805,16 @@
         <v>15</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E18" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
@@ -821,16 +823,16 @@
         <v>15</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
@@ -839,28 +841,46 @@
         <v>15</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
         <v>3</v>
       </c>
     </row>
